--- a/Credelec_Report.xlsx
+++ b/Credelec_Report.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,34 +424,34 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>4503925</v>
+        <v>4543609</v>
       </c>
       <c r="B2" t="str">
-        <v>1093</v>
+        <v>4115</v>
       </c>
       <c r="C2" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D2" t="str">
-        <v>maputo</v>
+        <v>centro</v>
       </c>
       <c r="E2" t="str">
-        <v>Vicente Simbine</v>
+        <v>Emilio Ventura</v>
       </c>
       <c r="F2" s="1">
-        <v>44922.69708820602</v>
+        <v>44958.30078265046</v>
       </c>
       <c r="G2" t="str">
-        <v>54102146534</v>
+        <v>22133430524</v>
       </c>
       <c r="H2" t="str">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I2" t="str">
         <v/>
       </c>
       <c r="J2" t="str">
-        <v>1758</v>
+        <v>1886</v>
       </c>
       <c r="K2" t="str">
         <v/>
@@ -465,40 +465,40 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1570281222</v>
+        <v>4784933</v>
       </c>
       <c r="B3" t="str">
-        <v>1570</v>
+        <v>4139</v>
       </c>
       <c r="C3" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D3" t="str">
-        <v>maputo</v>
+        <v>centro</v>
       </c>
       <c r="E3" t="str">
-        <v>Vicente Simbine</v>
+        <v>Zacarias Miambo</v>
       </c>
       <c r="F3" s="1">
-        <v>44923.81023530092</v>
+        <v>44964.3125324537</v>
       </c>
       <c r="G3" t="str">
-        <v>04273074544</v>
+        <v>7162765239</v>
       </c>
       <c r="H3" t="str">
-        <v>40000</v>
+        <v>65000</v>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>59101.17</v>
       </c>
       <c r="J3" t="str">
-        <v>1718</v>
+        <v>542.5</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>4430.40</v>
       </c>
       <c r="L3" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M3" t="str">
         <v/>
@@ -506,10 +506,10 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>4503083</v>
+        <v>4744020</v>
       </c>
       <c r="B4" t="str">
-        <v>1087</v>
+        <v>1190</v>
       </c>
       <c r="C4" t="str">
         <v>Preventative Maintenance</v>
@@ -518,25 +518,25 @@
         <v>maputo</v>
       </c>
       <c r="E4" t="str">
-        <v>Vicente Simbine</v>
+        <v>Stelio Ngome</v>
       </c>
       <c r="F4" s="1">
-        <v>44922.579029594905</v>
+        <v>44958.70435629629</v>
       </c>
       <c r="G4" t="str">
-        <v>54191329959</v>
+        <v>7112302018</v>
       </c>
       <c r="H4" t="str">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>36169.05</v>
       </c>
       <c r="J4" t="str">
-        <v>932</v>
+        <v>1730.7</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>2711.40</v>
       </c>
       <c r="L4" t="str">
         <v>Yes</v>
@@ -547,40 +547,40 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4503142</v>
+        <v>4718664</v>
       </c>
       <c r="B5" t="str">
-        <v>5608</v>
+        <v>2238</v>
       </c>
       <c r="C5" t="str">
-        <v>Preventative Maintenance</v>
+        <v>Callout</v>
       </c>
       <c r="D5" t="str">
-        <v>norte</v>
+        <v>sul</v>
       </c>
       <c r="E5" t="str">
-        <v>Abdul Emilia</v>
+        <v>Jaime Mucavel</v>
       </c>
       <c r="F5" s="1">
-        <v>44922.6577419213</v>
+        <v>44958.9086499537</v>
       </c>
       <c r="G5" t="str">
-        <v>54102226823</v>
+        <v>14316284430</v>
       </c>
       <c r="H5" t="str">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>63606.28</v>
       </c>
       <c r="J5" t="str">
-        <v>1710</v>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v/>
+        <v>4768.10</v>
       </c>
       <c r="L5" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M5" t="str">
         <v/>
@@ -588,92 +588,92 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>4502918</v>
+        <v>4729396</v>
       </c>
       <c r="B6" t="str">
-        <v>2205</v>
+        <v>6060</v>
       </c>
       <c r="C6" t="str">
-        <v>Preventative Maintenance</v>
+        <v>Callout</v>
       </c>
       <c r="D6" t="str">
-        <v>sul</v>
+        <v>norte</v>
       </c>
       <c r="E6" t="str">
-        <v>Adao Matanato</v>
+        <v>Sergio Da Silveira</v>
       </c>
       <c r="F6" s="1">
-        <v>44922.46352929398</v>
+        <v>44958.44988451389</v>
       </c>
       <c r="G6" t="str">
-        <v>071223321297</v>
+        <v>1321905513</v>
       </c>
       <c r="H6" t="str">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>27281.66</v>
       </c>
       <c r="J6" t="str">
-        <v>2976</v>
+        <v>0</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>2045.20</v>
       </c>
       <c r="L6" t="str">
         <v>No</v>
       </c>
       <c r="M6" t="str">
-        <v>ac</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>4511689</v>
+        <v>4741227</v>
       </c>
       <c r="B7" t="str">
-        <v>2221</v>
+        <v>2496</v>
       </c>
       <c r="C7" t="str">
-        <v>Preventative Maintenance</v>
+        <v>Callout</v>
       </c>
       <c r="D7" t="str">
         <v>sul</v>
       </c>
       <c r="E7" t="str">
-        <v>Adao Matanato</v>
+        <v>Elias Chipulo</v>
       </c>
       <c r="F7" s="1">
-        <v>44924.36371091435</v>
+        <v>44958.484990324076</v>
       </c>
       <c r="G7" t="str">
-        <v>54228051634</v>
+        <v>54229048332</v>
       </c>
       <c r="H7" t="str">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>22631.02</v>
       </c>
       <c r="J7" t="str">
-        <v>2587</v>
+        <v>0</v>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>1696.50</v>
       </c>
       <c r="L7" t="str">
         <v>No</v>
       </c>
       <c r="M7" t="str">
-        <v>ac</v>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1651281222</v>
+        <v>4753329</v>
       </c>
       <c r="B8" t="str">
-        <v>1651</v>
+        <v>1112</v>
       </c>
       <c r="C8" t="str">
         <v>Preventative Maintenance</v>
@@ -682,25 +682,25 @@
         <v>maputo</v>
       </c>
       <c r="E8" t="str">
-        <v>Vicente Simbine</v>
+        <v>Nilvio Mubai</v>
       </c>
       <c r="F8" s="1">
-        <v>44923.603172800926</v>
+        <v>44959.576137511576</v>
       </c>
       <c r="G8" t="str">
-        <v>14440674894</v>
+        <v>1321572875</v>
       </c>
       <c r="H8" t="str">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="I8" t="str">
-        <v/>
+        <v>13324.25</v>
       </c>
       <c r="J8" t="str">
-        <v>3172</v>
+        <v>3284.48</v>
       </c>
       <c r="K8" t="str">
-        <v/>
+        <v>998.90</v>
       </c>
       <c r="L8" t="str">
         <v>Yes</v>
@@ -711,37 +711,37 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5611281222</v>
+        <v>4742271</v>
       </c>
       <c r="B9" t="str">
-        <v>5611</v>
+        <v>6491</v>
       </c>
       <c r="C9" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D9" t="str">
-        <v>norte</v>
+        <v>maputo</v>
       </c>
       <c r="E9" t="str">
-        <v>Abdul Emilia</v>
+        <v>Mauricio Guambe</v>
       </c>
       <c r="F9" s="1">
-        <v>44923.627917233796</v>
+        <v>44958.67884375</v>
       </c>
       <c r="G9" t="str">
-        <v>07120909747</v>
+        <v>54280021111</v>
       </c>
       <c r="H9" t="str">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="I9" t="str">
-        <v/>
+        <v>36068.07</v>
       </c>
       <c r="J9" t="str">
-        <v>4402</v>
+        <v>1547.70</v>
       </c>
       <c r="K9" t="str">
-        <v/>
+        <v>2703.80</v>
       </c>
       <c r="L9" t="str">
         <v>Yes</v>
@@ -752,40 +752,40 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>4502965</v>
+        <v>4744115</v>
       </c>
       <c r="B10" t="str">
-        <v>2551</v>
+        <v>1250</v>
       </c>
       <c r="C10" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D10" t="str">
-        <v>sul</v>
+        <v>maputo</v>
       </c>
       <c r="E10" t="str">
-        <v>Alexandre Verlopp</v>
+        <v>Marcio Joaquim</v>
       </c>
       <c r="F10" s="1">
-        <v>44922.632316793985</v>
+        <v>44958.778822465276</v>
       </c>
       <c r="G10" t="str">
-        <v>07112419648</v>
+        <v>4285237279</v>
       </c>
       <c r="H10" t="str">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="I10" t="str">
-        <v/>
+        <v>45324.80</v>
       </c>
       <c r="J10" t="str">
-        <v>357</v>
+        <v>2913.36</v>
       </c>
       <c r="K10" t="str">
-        <v/>
+        <v>5932.60</v>
       </c>
       <c r="L10" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M10" t="str">
         <v/>
@@ -793,37 +793,37 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>4502579</v>
+        <v>4752632</v>
       </c>
       <c r="B11" t="str">
-        <v>2550</v>
+        <v>1310</v>
       </c>
       <c r="C11" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D11" t="str">
-        <v>sul</v>
+        <v>maputo</v>
       </c>
       <c r="E11" t="str">
-        <v>Alexandre Verlopp</v>
+        <v>Antonio Macuacua</v>
       </c>
       <c r="F11" s="1">
-        <v>44922.515346886576</v>
+        <v>44959.63103341435</v>
       </c>
       <c r="G11" t="str">
-        <v>22133586614</v>
+        <v>54280008985</v>
       </c>
       <c r="H11" t="str">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="I11" t="str">
-        <v/>
+        <v>54324.98</v>
       </c>
       <c r="J11" t="str">
-        <v>1024</v>
+        <v>4416</v>
       </c>
       <c r="K11" t="str">
-        <v/>
+        <v>4072.40</v>
       </c>
       <c r="L11" t="str">
         <v>No</v>
@@ -834,40 +834,40 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>2026271222</v>
+        <v>4755333</v>
       </c>
       <c r="B12" t="str">
-        <v>2026</v>
+        <v>1313</v>
       </c>
       <c r="C12" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D12" t="str">
-        <v>sul</v>
+        <v>maputo</v>
       </c>
       <c r="E12" t="str">
-        <v>Angelo Cuco</v>
+        <v>Antonio Macuacua</v>
       </c>
       <c r="F12" s="1">
-        <v>44923.47697059028</v>
+        <v>44959.78984159722</v>
       </c>
       <c r="G12" t="str">
-        <v>07113325042</v>
+        <v>54280008910</v>
       </c>
       <c r="H12" t="str">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="I12" t="str">
-        <v/>
+        <v>54437.79</v>
       </c>
       <c r="J12" t="str">
-        <v>3413</v>
+        <v>3382.25</v>
       </c>
       <c r="K12" t="str">
-        <v/>
+        <v>4080.80</v>
       </c>
       <c r="L12" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M12" t="str">
         <v/>
@@ -875,10 +875,10 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>4502600</v>
+        <v>4755506</v>
       </c>
       <c r="B13" t="str">
-        <v>1322</v>
+        <v>1253</v>
       </c>
       <c r="C13" t="str">
         <v>Preventative Maintenance</v>
@@ -887,66 +887,66 @@
         <v>maputo</v>
       </c>
       <c r="E13" t="str">
-        <v>Antonio Macuacua</v>
+        <v>Vicente Simbine</v>
       </c>
       <c r="F13" s="1">
-        <v>44922.633643657406</v>
+        <v>44959.73584152778</v>
       </c>
       <c r="G13" t="str">
-        <v>54191343950</v>
+        <v>22140277389</v>
       </c>
       <c r="H13" t="str">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="I13" t="str">
-        <v/>
+        <v>45165.59</v>
       </c>
       <c r="J13" t="str">
-        <v>4228</v>
+        <v>988.98</v>
       </c>
       <c r="K13" t="str">
-        <v/>
+        <v>3385.80</v>
       </c>
       <c r="L13" t="str">
         <v>Yes</v>
       </c>
       <c r="M13" t="str">
-        <v/>
+        <v>dc</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>105828122022</v>
+        <v>4749372</v>
       </c>
       <c r="B14" t="str">
-        <v>1058</v>
+        <v>2053</v>
       </c>
       <c r="C14" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D14" t="str">
-        <v>maputo</v>
+        <v>sul</v>
       </c>
       <c r="E14" t="str">
-        <v>Antonio Macuacua</v>
+        <v>Jaime Mucavel</v>
       </c>
       <c r="F14" s="1">
-        <v>44923.754179097225</v>
+        <v>44959.55366140046</v>
       </c>
       <c r="G14" t="str">
-        <v>22140518575</v>
+        <v>54191653895</v>
       </c>
       <c r="H14" t="str">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="I14" t="str">
-        <v/>
+        <v>27270.76</v>
       </c>
       <c r="J14" t="str">
-        <v>3748</v>
+        <v>3198.83</v>
       </c>
       <c r="K14" t="str">
-        <v/>
+        <v>2044.30</v>
       </c>
       <c r="L14" t="str">
         <v>Yes</v>
@@ -957,160 +957,160 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>281220223300</v>
+        <v>4742246</v>
       </c>
       <c r="B15" t="str">
-        <v>3300</v>
+        <v>2202</v>
       </c>
       <c r="C15" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D15" t="str">
-        <v>centro</v>
+        <v>sul</v>
       </c>
       <c r="E15" t="str">
-        <v>Cidalio Sixpence</v>
+        <v>Adao Matanato</v>
       </c>
       <c r="F15" s="1">
-        <v>44923.83769826389</v>
+        <v>44958.57859996528</v>
       </c>
       <c r="G15" t="str">
-        <v>54180831460</v>
+        <v>07118158737</v>
       </c>
       <c r="H15" t="str">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="I15" t="str">
-        <v/>
+        <v>4327.70</v>
       </c>
       <c r="J15" t="str">
-        <v>2552</v>
+        <v>91.8</v>
       </c>
       <c r="K15" t="str">
-        <v/>
+        <v>1889.90</v>
       </c>
       <c r="L15" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M15" t="str">
-        <v/>
+        <v>ac</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>28122022</v>
+        <v>4742246</v>
       </c>
       <c r="B16" t="str">
-        <v>3100</v>
+        <v>2202</v>
       </c>
       <c r="C16" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D16" t="str">
-        <v>centro</v>
+        <v>sul</v>
       </c>
       <c r="E16" t="str">
-        <v>Cidalio Sixpence</v>
+        <v>Adao Matanato</v>
       </c>
       <c r="F16" s="1">
-        <v>44923.58616153935</v>
+        <v>44958.57859996528</v>
       </c>
       <c r="G16" t="str">
-        <v>07112296384</v>
+        <v>07118158737</v>
       </c>
       <c r="H16" t="str">
-        <v>70000</v>
+        <v>3000</v>
       </c>
       <c r="I16" t="str">
-        <v/>
+        <v>2729.26</v>
       </c>
       <c r="J16" t="str">
-        <v>3105</v>
+        <v>91.8</v>
       </c>
       <c r="K16" t="str">
-        <v/>
+        <v>1191.90</v>
       </c>
       <c r="L16" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M16" t="str">
-        <v>dc</v>
+        <v>ac</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>3080281222</v>
+        <v>4742246</v>
       </c>
       <c r="B17" t="str">
-        <v>3080</v>
+        <v>2202</v>
       </c>
       <c r="C17" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D17" t="str">
-        <v>centro</v>
+        <v>sul</v>
       </c>
       <c r="E17" t="str">
-        <v>Clemente Mussa</v>
+        <v>Adao Matanato</v>
       </c>
       <c r="F17" s="1">
-        <v>44923.53728729166</v>
+        <v>44958.57859996528</v>
       </c>
       <c r="G17" t="str">
-        <v>54229526253</v>
+        <v>07118158737</v>
       </c>
       <c r="H17" t="str">
-        <v>55000</v>
+        <v>5000</v>
       </c>
       <c r="I17" t="str">
-        <v/>
+        <v>4548.77</v>
       </c>
       <c r="J17" t="str">
-        <v>117</v>
+        <v>91.8</v>
       </c>
       <c r="K17" t="str">
-        <v/>
+        <v>1986.40</v>
       </c>
       <c r="L17" t="str">
         <v>No</v>
       </c>
       <c r="M17" t="str">
-        <v/>
+        <v>ac</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>4483463</v>
+        <v>4740085</v>
       </c>
       <c r="B18" t="str">
-        <v>3035</v>
+        <v>2400</v>
       </c>
       <c r="C18" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D18" t="str">
-        <v>centro</v>
+        <v>sul</v>
       </c>
       <c r="E18" t="str">
-        <v>Clemente Mussa</v>
+        <v>Alexandre Canhore</v>
       </c>
       <c r="F18" s="1">
-        <v>44922.29839659722</v>
+        <v>44958.83390765046</v>
       </c>
       <c r="G18" t="str">
-        <v>22133219299</v>
+        <v>14321074628</v>
       </c>
       <c r="H18" t="str">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="I18" t="str">
-        <v/>
+        <v>54519.67</v>
       </c>
       <c r="J18" t="str">
-        <v>3391</v>
+        <v>538.72</v>
       </c>
       <c r="K18" t="str">
-        <v/>
+        <v>4087.00</v>
       </c>
       <c r="L18" t="str">
         <v>No</v>
@@ -1121,40 +1121,40 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>4502569</v>
+        <v>4743207</v>
       </c>
       <c r="B19" t="str">
-        <v>1757</v>
+        <v>2500</v>
       </c>
       <c r="C19" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D19" t="str">
-        <v>maputo</v>
+        <v>sul</v>
       </c>
       <c r="E19" t="str">
-        <v>Dario Munguambe</v>
+        <v>Elias Chipulo</v>
       </c>
       <c r="F19" s="1">
-        <v>44922.425194351854</v>
+        <v>44958.63119087963</v>
       </c>
       <c r="G19" t="str">
-        <v>14315749334</v>
+        <v>1320182221</v>
       </c>
       <c r="H19" t="str">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="I19" t="str">
-        <v/>
+        <v>90862.46</v>
       </c>
       <c r="J19" t="str">
-        <v>237</v>
+        <v>619.39</v>
       </c>
       <c r="K19" t="str">
-        <v/>
+        <v>6811.30</v>
       </c>
       <c r="L19" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M19" t="str">
         <v/>
@@ -1162,40 +1162,40 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>4511627</v>
+        <v>4743280</v>
       </c>
       <c r="B20" t="str">
-        <v>1758</v>
+        <v>4624</v>
       </c>
       <c r="C20" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D20" t="str">
-        <v>maputo</v>
+        <v>centro</v>
       </c>
       <c r="E20" t="str">
-        <v>Dario Munguambe</v>
+        <v>Euclides Nabo</v>
       </c>
       <c r="F20" s="1">
-        <v>44924.339635462966</v>
+        <v>44958.72024321759</v>
       </c>
       <c r="G20" t="str">
-        <v>54203647299</v>
+        <v>7111591199</v>
       </c>
       <c r="H20" t="str">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="I20" t="str">
-        <v/>
+        <v>9021.11</v>
       </c>
       <c r="J20" t="str">
-        <v>1066</v>
+        <v>2076.5</v>
       </c>
       <c r="K20" t="str">
-        <v/>
+        <v>676.30</v>
       </c>
       <c r="L20" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M20" t="str">
         <v/>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>4503298</v>
+        <v>47531115</v>
       </c>
       <c r="B21" t="str">
-        <v>5619</v>
+        <v>5004</v>
       </c>
       <c r="C21" t="str">
         <v>Preventative Maintenance</v>
@@ -1215,25 +1215,25 @@
         <v>norte</v>
       </c>
       <c r="E21" t="str">
-        <v>Ernesto Candeado</v>
+        <v>Jordao Alfredo</v>
       </c>
       <c r="F21" s="1">
-        <v>44922.71048472222</v>
+        <v>44959.49383590278</v>
       </c>
       <c r="G21" t="str">
-        <v>07114096279</v>
+        <v>1321899708</v>
       </c>
       <c r="H21" t="str">
-        <v>65000</v>
+        <v>100000</v>
       </c>
       <c r="I21" t="str">
-        <v/>
+        <v>98806.05</v>
       </c>
       <c r="J21" t="str">
-        <v>967</v>
+        <v>1176.79</v>
       </c>
       <c r="K21" t="str">
-        <v/>
+        <v>6807.10</v>
       </c>
       <c r="L21" t="str">
         <v>No</v>
@@ -1244,40 +1244,40 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>4502383</v>
+        <v>4754912</v>
       </c>
       <c r="B22" t="str">
-        <v>1722</v>
+        <v>5005</v>
       </c>
       <c r="C22" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D22" t="str">
-        <v>maputo</v>
+        <v>norte</v>
       </c>
       <c r="E22" t="str">
-        <v>Dinis Bene</v>
+        <v>Jordao Alfredo</v>
       </c>
       <c r="F22" s="1">
-        <v>44922.58285146991</v>
+        <v>44959.722705011576</v>
       </c>
       <c r="G22" t="str">
-        <v>54217554291</v>
+        <v>1321900316</v>
       </c>
       <c r="H22" t="str">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I22" t="str">
-        <v/>
+        <v>45318.42</v>
       </c>
       <c r="J22" t="str">
-        <v>3488</v>
+        <v>2048.22</v>
       </c>
       <c r="K22" t="str">
-        <v/>
+        <v>3397.20</v>
       </c>
       <c r="L22" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M22" t="str">
         <v/>
@@ -1285,37 +1285,37 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>4504117</v>
+        <v>4779644</v>
       </c>
       <c r="B23" t="str">
-        <v>4492</v>
+        <v>5562</v>
       </c>
       <c r="C23" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D23" t="str">
-        <v>centro</v>
+        <v>norte</v>
       </c>
       <c r="E23" t="str">
-        <v>Euclides Nabo</v>
+        <v>Manuel Dimande</v>
       </c>
       <c r="F23" s="1">
-        <v>44922.68926298611</v>
+        <v>44963.67773653935</v>
       </c>
       <c r="G23" t="str">
-        <v>54102210637</v>
+        <v>54191391462</v>
       </c>
       <c r="H23" t="str">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="I23" t="str">
-        <v/>
+        <v>68209.61</v>
       </c>
       <c r="J23" t="str">
-        <v>2234</v>
+        <v>1002.12</v>
       </c>
       <c r="K23" t="str">
-        <v/>
+        <v>5113.2</v>
       </c>
       <c r="L23" t="str">
         <v>Yes</v>
@@ -1326,40 +1326,40 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>4592281222</v>
+        <v>4742582</v>
       </c>
       <c r="B24" t="str">
-        <v>4592</v>
+        <v>5714</v>
       </c>
       <c r="C24" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D24" t="str">
-        <v>centro</v>
+        <v>norte</v>
       </c>
       <c r="E24" t="str">
-        <v>Euclides Nabo</v>
+        <v>Faizal Macheve</v>
       </c>
       <c r="F24" s="1">
-        <v>44923.532674155096</v>
+        <v>44958.72194038195</v>
       </c>
       <c r="G24" t="str">
-        <v>54280554244</v>
+        <v>84030607596</v>
       </c>
       <c r="H24" t="str">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I24" t="str">
-        <v/>
+        <v>1764.71</v>
       </c>
       <c r="J24" t="str">
-        <v>3704</v>
+        <v>45431.23</v>
       </c>
       <c r="K24" t="str">
-        <v/>
+        <v>3405.70</v>
       </c>
       <c r="L24" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M24" t="str">
         <v/>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>4502574</v>
+        <v>4744074</v>
       </c>
       <c r="B25" t="str">
-        <v>4508</v>
+        <v>3131</v>
       </c>
       <c r="C25" t="str">
         <v>Preventative Maintenance</v>
@@ -1379,25 +1379,25 @@
         <v>centro</v>
       </c>
       <c r="E25" t="str">
-        <v>Euclides Nabo</v>
+        <v>Emilio Ventura</v>
       </c>
       <c r="F25" s="1">
-        <v>44922.49108053241</v>
+        <v>44958.823117974534</v>
       </c>
       <c r="G25" t="str">
-        <v>30280466472</v>
+        <v>14320250674</v>
       </c>
       <c r="H25" t="str">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I25" t="str">
-        <v/>
+        <v>45465.80</v>
       </c>
       <c r="J25" t="str">
-        <v>1357</v>
+        <v>3295.60</v>
       </c>
       <c r="K25" t="str">
-        <v/>
+        <v>3408.30</v>
       </c>
       <c r="L25" t="str">
         <v>Yes</v>
@@ -1408,40 +1408,40 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>4511447</v>
+        <v>4744045</v>
       </c>
       <c r="B26" t="str">
-        <v>4138</v>
+        <v>5781</v>
       </c>
       <c r="C26" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D26" t="str">
-        <v>centro</v>
+        <v>norte</v>
       </c>
       <c r="E26" t="str">
-        <v>Filipe Sengo</v>
+        <v>Dercio Bambo</v>
       </c>
       <c r="F26" s="1">
-        <v>44924.31740581019</v>
+        <v>44958.74317232639</v>
       </c>
       <c r="G26" t="str">
-        <v>22133423784</v>
+        <v>14330259665</v>
       </c>
       <c r="H26" t="str">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="I26" t="str">
-        <v/>
+        <v>18025.84</v>
       </c>
       <c r="J26" t="str">
-        <v>2864</v>
+        <v>2695.49</v>
       </c>
       <c r="K26" t="str">
-        <v/>
+        <v>1351.30</v>
       </c>
       <c r="L26" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M26" t="str">
         <v/>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>4503123</v>
+        <v>4769811</v>
       </c>
       <c r="B27" t="str">
-        <v>1724</v>
+        <v>1109</v>
       </c>
       <c r="C27" t="str">
         <v>Preventative Maintenance</v>
@@ -1461,28 +1461,28 @@
         <v>maputo</v>
       </c>
       <c r="E27" t="str">
-        <v>Francisco Baco</v>
+        <v>Nilvio Mubai</v>
       </c>
       <c r="F27" s="1">
-        <v>44922.375871875</v>
+        <v>44963.60166760417</v>
       </c>
       <c r="G27" t="str">
-        <v>22140358445</v>
+        <v>1321393991</v>
       </c>
       <c r="H27" t="str">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="I27" t="str">
-        <v/>
+        <v>26803.15</v>
       </c>
       <c r="J27" t="str">
-        <v>1342</v>
+        <v>2655.63</v>
       </c>
       <c r="K27" t="str">
-        <v/>
+        <v>2009.30</v>
       </c>
       <c r="L27" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M27" t="str">
         <v/>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>450410</v>
+        <v>4754915</v>
       </c>
       <c r="B28" t="str">
-        <v>1756</v>
+        <v>1175</v>
       </c>
       <c r="C28" t="str">
         <v>Preventative Maintenance</v>
@@ -1502,39 +1502,39 @@
         <v>maputo</v>
       </c>
       <c r="E28" t="str">
-        <v>Francisco Baco</v>
+        <v>Dinis Bene</v>
       </c>
       <c r="F28" s="1">
-        <v>44922.58803594908</v>
+        <v>44959.697063761574</v>
       </c>
       <c r="G28" t="str">
-        <v>14315754235</v>
+        <v>7111647314</v>
       </c>
       <c r="H28" t="str">
         <v>30000</v>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>27270.76</v>
       </c>
       <c r="J28" t="str">
-        <v>2399</v>
+        <v>4201.5</v>
       </c>
       <c r="K28" t="str">
-        <v/>
+        <v>2044.30</v>
       </c>
       <c r="L28" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M28" t="str">
-        <v/>
+        <v>dc</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>4507220</v>
+        <v>4779896</v>
       </c>
       <c r="B29" t="str">
-        <v>1656</v>
+        <v>1186</v>
       </c>
       <c r="C29" t="str">
         <v>Preventative Maintenance</v>
@@ -1543,25 +1543,25 @@
         <v>maputo</v>
       </c>
       <c r="E29" t="str">
-        <v>Francisco Baco</v>
+        <v>Jaime Sabeca</v>
       </c>
       <c r="F29" s="1">
-        <v>44923.475581307874</v>
+        <v>44963.63018528935</v>
       </c>
       <c r="G29" t="str">
-        <v>54281032869</v>
+        <v>7113380674</v>
       </c>
       <c r="H29" t="str">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="I29" t="str">
-        <v/>
+        <v>72374.47</v>
       </c>
       <c r="J29" t="str">
-        <v>395</v>
+        <v>876.3</v>
       </c>
       <c r="K29" t="str">
-        <v/>
+        <v>5425.4</v>
       </c>
       <c r="L29" t="str">
         <v>No</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>4502578</v>
+        <v>4755340</v>
       </c>
       <c r="B30" t="str">
-        <v>1759</v>
+        <v>1205</v>
       </c>
       <c r="C30" t="str">
         <v>Preventative Maintenance</v>
@@ -1584,25 +1584,25 @@
         <v>maputo</v>
       </c>
       <c r="E30" t="str">
-        <v>Francisco Baco</v>
+        <v>Pascoal Chambela</v>
       </c>
       <c r="F30" s="1">
-        <v>44922.50083320602</v>
+        <v>44959.791179513886</v>
       </c>
       <c r="G30" t="str">
-        <v>14316469759</v>
+        <v>54281089810</v>
       </c>
       <c r="H30" t="str">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="I30" t="str">
-        <v/>
+        <v>72520.03</v>
       </c>
       <c r="J30" t="str">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="K30" t="str">
-        <v/>
+        <v>5436.30</v>
       </c>
       <c r="L30" t="str">
         <v>No</v>
@@ -1613,40 +1613,40 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>4503086</v>
+        <v>4750816</v>
       </c>
       <c r="B31" t="str">
-        <v>2014</v>
+        <v>1411</v>
       </c>
       <c r="C31" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D31" t="str">
-        <v>sul</v>
+        <v>maputo</v>
       </c>
       <c r="E31" t="str">
-        <v>Helder Manjate</v>
+        <v>Francisco Baco</v>
       </c>
       <c r="F31" s="1">
-        <v>44922.650661377316</v>
+        <v>44959.4179808912</v>
       </c>
       <c r="G31" t="str">
-        <v>01321102814</v>
+        <v>14316105940</v>
       </c>
       <c r="H31" t="str">
-        <v>130000</v>
+        <v>25000</v>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>22338.08</v>
       </c>
       <c r="J31" t="str">
-        <v>458</v>
+        <v>2583.06</v>
       </c>
       <c r="K31" t="str">
-        <v/>
+        <v>1674.60</v>
       </c>
       <c r="L31" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M31" t="str">
         <v/>
@@ -1654,40 +1654,40 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>21802812</v>
+        <v>4755071</v>
       </c>
       <c r="B32" t="str">
-        <v>2180</v>
+        <v>1665</v>
       </c>
       <c r="C32" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D32" t="str">
-        <v>sul</v>
+        <v>maputo</v>
       </c>
       <c r="E32" t="str">
-        <v>Helder Manjate</v>
+        <v>Stelio Ngome</v>
       </c>
       <c r="F32" s="1">
-        <v>44923.485506412035</v>
+        <v>44959.74378293981</v>
       </c>
       <c r="G32" t="str">
-        <v>14316567495</v>
+        <v>54228483738</v>
       </c>
       <c r="H32" t="str">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>72769.30</v>
       </c>
       <c r="J32" t="str">
-        <v>3208</v>
+        <v>587.07</v>
       </c>
       <c r="K32" t="str">
-        <v/>
+        <v>5455.00</v>
       </c>
       <c r="L32" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M32" t="str">
         <v/>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>101228122022</v>
+        <v>4779505</v>
       </c>
       <c r="B33" t="str">
-        <v>1012</v>
+        <v>1460</v>
       </c>
       <c r="C33" t="str">
         <v>Preventative Maintenance</v>
@@ -1707,28 +1707,28 @@
         <v>maputo</v>
       </c>
       <c r="E33" t="str">
-        <v>Helio Gabriel</v>
+        <v>Marcio Joaquim</v>
       </c>
       <c r="F33" s="1">
-        <v>44923.77880315972</v>
+        <v>44963.51983125</v>
       </c>
       <c r="G33" t="str">
-        <v>22140543764</v>
+        <v>14321882814</v>
       </c>
       <c r="H33" t="str">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="I33" t="str">
-        <v/>
+        <v>45081.9</v>
       </c>
       <c r="J33" t="str">
-        <v>1841</v>
+        <v>2604.20</v>
       </c>
       <c r="K33" t="str">
-        <v/>
+        <v>3379.5</v>
       </c>
       <c r="L33" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M33" t="str">
         <v/>
@@ -1736,40 +1736,40 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>4502576</v>
+        <v>4754457</v>
       </c>
       <c r="B34" t="str">
-        <v>5582</v>
+        <v>1643</v>
       </c>
       <c r="C34" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D34" t="str">
-        <v>norte</v>
+        <v>maputo</v>
       </c>
       <c r="E34" t="str">
-        <v>Hugo Francisco</v>
+        <v>Pascoal Chambela</v>
       </c>
       <c r="F34" s="1">
-        <v>44922.55027533565</v>
+        <v>44959.66396787037</v>
       </c>
       <c r="G34" t="str">
-        <v>54191630539</v>
+        <v>4257991051</v>
       </c>
       <c r="H34" t="str">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="I34" t="str">
-        <v/>
+        <v>45227.46</v>
       </c>
       <c r="J34" t="str">
-        <v>3563</v>
+        <v>2997.96</v>
       </c>
       <c r="K34" t="str">
-        <v/>
+        <v>3390.40</v>
       </c>
       <c r="L34" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M34" t="str">
         <v/>
@@ -1777,10 +1777,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>4502596</v>
+        <v>4752903</v>
       </c>
       <c r="B35" t="str">
-        <v>2219</v>
+        <v>2193</v>
       </c>
       <c r="C35" t="str">
         <v>Preventative Maintenance</v>
@@ -1789,107 +1789,107 @@
         <v>sul</v>
       </c>
       <c r="E35" t="str">
-        <v>Jaime Mucavel</v>
+        <v>Angelo Cuco</v>
       </c>
       <c r="F35" s="1">
-        <v>44922.55497232639</v>
+        <v>44959.51845846065</v>
       </c>
       <c r="G35" t="str">
-        <v>14319753381</v>
+        <v>54217091294</v>
       </c>
       <c r="H35" t="str">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I35" t="str">
-        <v/>
+        <v>45454.70</v>
       </c>
       <c r="J35" t="str">
-        <v>2259</v>
+        <v>948.42</v>
       </c>
       <c r="K35" t="str">
-        <v/>
+        <v>3407.50</v>
       </c>
       <c r="L35" t="str">
         <v>No</v>
       </c>
       <c r="M35" t="str">
-        <v>dc</v>
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>506628122022</v>
+        <v>4749359</v>
       </c>
       <c r="B36" t="str">
-        <v>5066</v>
+        <v>2205</v>
       </c>
       <c r="C36" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D36" t="str">
-        <v>norte</v>
+        <v>sul</v>
       </c>
       <c r="E36" t="str">
-        <v>Jordao Alfredo</v>
+        <v>Adao Matanato</v>
       </c>
       <c r="F36" s="1">
-        <v>44923.56289085648</v>
+        <v>44959.426311076386</v>
       </c>
       <c r="G36" t="str">
-        <v>14321715980</v>
+        <v>7122321297</v>
       </c>
       <c r="H36" t="str">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="I36" t="str">
-        <v/>
+        <v>13569.89</v>
       </c>
       <c r="J36" t="str">
-        <v>3934</v>
+        <v>3952.6</v>
       </c>
       <c r="K36" t="str">
-        <v/>
+        <v>1017</v>
       </c>
       <c r="L36" t="str">
         <v>No</v>
       </c>
       <c r="M36" t="str">
-        <v/>
+        <v>ac</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>4503295</v>
+        <v>4751019</v>
       </c>
       <c r="B37" t="str">
-        <v>5067</v>
+        <v>2194</v>
       </c>
       <c r="C37" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D37" t="str">
-        <v>norte</v>
+        <v>sul</v>
       </c>
       <c r="E37" t="str">
-        <v>Jordao Alfredo</v>
+        <v>Angelo Cuco</v>
       </c>
       <c r="F37" s="1">
-        <v>44922.67146517361</v>
+        <v>44959.39813988426</v>
       </c>
       <c r="G37" t="str">
-        <v>14321751480</v>
+        <v>54229359952</v>
       </c>
       <c r="H37" t="str">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="I37" t="str">
-        <v/>
+        <v>50025.49</v>
       </c>
       <c r="J37" t="str">
-        <v>1452</v>
+        <v>647.78</v>
       </c>
       <c r="K37" t="str">
-        <v/>
+        <v>3750.10</v>
       </c>
       <c r="L37" t="str">
         <v>No</v>
@@ -1900,40 +1900,40 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1083</v>
+        <v>4753361</v>
       </c>
       <c r="B38" t="str">
-        <v>1083</v>
+        <v>2300</v>
       </c>
       <c r="C38" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D38" t="str">
-        <v>maputo</v>
+        <v>sul</v>
       </c>
       <c r="E38" t="str">
-        <v>Marcio Joaquim</v>
+        <v>Elias Chipulo</v>
       </c>
       <c r="F38" s="1">
-        <v>44923.569065497686</v>
+        <v>44959.62198116898</v>
       </c>
       <c r="G38" t="str">
-        <v>01321155184</v>
+        <v>14319748951</v>
       </c>
       <c r="H38" t="str">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="I38" t="str">
-        <v/>
+        <v>22574.62</v>
       </c>
       <c r="J38" t="str">
-        <v>910</v>
+        <v>1776.80</v>
       </c>
       <c r="K38" t="str">
-        <v/>
+        <v>1692.30</v>
       </c>
       <c r="L38" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M38" t="str">
         <v/>
@@ -1941,40 +1941,40 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>4503245</v>
+        <v>4751108</v>
       </c>
       <c r="B39" t="str">
-        <v>1272</v>
+        <v>2495</v>
       </c>
       <c r="C39" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D39" t="str">
-        <v>maputo</v>
+        <v>sul</v>
       </c>
       <c r="E39" t="str">
-        <v>Marcio Joaquim</v>
+        <v>Elias Chipulo</v>
       </c>
       <c r="F39" s="1">
-        <v>44922.561664594905</v>
+        <v>44959.56139730324</v>
       </c>
       <c r="G39" t="str">
-        <v>07110842841</v>
+        <v>7118158760</v>
       </c>
       <c r="H39" t="str">
         <v>60000</v>
       </c>
       <c r="I39" t="str">
-        <v/>
+        <v>54415.96</v>
       </c>
       <c r="J39" t="str">
-        <v>2151</v>
+        <v>18.1</v>
       </c>
       <c r="K39" t="str">
-        <v/>
+        <v>4079.20</v>
       </c>
       <c r="L39" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M39" t="str">
         <v/>
@@ -1982,119 +1982,119 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>1106</v>
+        <v>4751108</v>
       </c>
       <c r="B40" t="str">
-        <v>1106</v>
+        <v>2495</v>
       </c>
       <c r="C40" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D40" t="str">
-        <v>maputo</v>
+        <v>sul</v>
       </c>
       <c r="E40" t="str">
-        <v>Marcio Joaquim</v>
+        <v>Elias Chipulo</v>
       </c>
       <c r="F40" s="1">
-        <v>44923.73373736111</v>
+        <v>44959.56139730324</v>
       </c>
       <c r="G40" t="str">
-        <v>3028048389</v>
+        <v>7118158760</v>
       </c>
       <c r="H40" t="str">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="I40" t="str">
-        <v/>
+        <v>22743.82</v>
       </c>
       <c r="J40" t="str">
-        <v>195</v>
+        <v>18.1</v>
       </c>
       <c r="K40" t="str">
-        <v/>
+        <v>1705</v>
       </c>
       <c r="L40" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M40" t="str">
-        <v>dc</v>
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>4503241</v>
+        <v>4743240</v>
       </c>
       <c r="B41" t="str">
-        <v>1068</v>
+        <v>2614</v>
       </c>
       <c r="C41" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D41" t="str">
-        <v>maputo</v>
+        <v>sul</v>
       </c>
       <c r="E41" t="str">
-        <v>Juma Adamo</v>
+        <v>Jaime Mucavel</v>
       </c>
       <c r="F41" s="1">
-        <v>44922.4805571875</v>
+        <v>44958.72687935185</v>
       </c>
       <c r="G41" t="str">
-        <v>01351776016</v>
+        <v>54216962826</v>
       </c>
       <c r="H41" t="str">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="I41" t="str">
-        <v/>
+        <v>31672.14</v>
       </c>
       <c r="J41" t="str">
-        <v>599</v>
+        <v>3814.32</v>
       </c>
       <c r="K41" t="str">
-        <v/>
+        <v>2374.30</v>
       </c>
       <c r="L41" t="str">
         <v>No</v>
       </c>
       <c r="M41" t="str">
-        <v>dc</v>
+        <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>4511728</v>
+        <v>4750834</v>
       </c>
       <c r="B42" t="str">
-        <v>5750</v>
+        <v>2158</v>
       </c>
       <c r="C42" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D42" t="str">
-        <v>norte</v>
+        <v>sul</v>
       </c>
       <c r="E42" t="str">
-        <v>Moreno Silvestre</v>
+        <v>Carlos Gume</v>
       </c>
       <c r="F42" s="1">
-        <v>44924.428587800925</v>
+        <v>44959.531680671294</v>
       </c>
       <c r="G42" t="str">
-        <v>14321322894</v>
+        <v>7140532743</v>
       </c>
       <c r="H42" t="str">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="I42" t="str">
-        <v/>
+        <v>59046.58</v>
       </c>
       <c r="J42" t="str">
-        <v>2976</v>
+        <v>464.6</v>
       </c>
       <c r="K42" t="str">
-        <v/>
+        <v>4426.30</v>
       </c>
       <c r="L42" t="str">
         <v>No</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>4505009</v>
+        <v>4755361</v>
       </c>
       <c r="B43" t="str">
-        <v>4557</v>
+        <v>3214</v>
       </c>
       <c r="C43" t="str">
         <v>Preventative Maintenance</v>
@@ -2117,28 +2117,28 @@
         <v>centro</v>
       </c>
       <c r="E43" t="str">
-        <v>Nelson Machava</v>
+        <v>Carlos Chin</v>
       </c>
       <c r="F43" s="1">
-        <v>44922.725916828706</v>
+        <v>44959.79870944445</v>
       </c>
       <c r="G43" t="str">
-        <v>01321381897</v>
+        <v>7120250050</v>
       </c>
       <c r="H43" t="str">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="I43" t="str">
-        <v/>
+        <v>40906.12</v>
       </c>
       <c r="J43" t="str">
-        <v>2325.50</v>
+        <v>0</v>
       </c>
       <c r="K43" t="str">
-        <v/>
+        <v>3066.50</v>
       </c>
       <c r="L43" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M43" t="str">
         <v/>
@@ -2146,40 +2146,40 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>4503922</v>
+        <v>4752663</v>
       </c>
       <c r="B44" t="str">
-        <v>2139</v>
+        <v>3104</v>
       </c>
       <c r="C44" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D44" t="str">
-        <v>maputo</v>
+        <v>centro</v>
       </c>
       <c r="E44" t="str">
-        <v>Pascoal Chambela</v>
+        <v>Alberto Muchanga</v>
       </c>
       <c r="F44" s="1">
-        <v>44922.73408321759</v>
+        <v>44959.671021284725</v>
       </c>
       <c r="G44" t="str">
-        <v>54217415741</v>
+        <v>07112445403</v>
       </c>
       <c r="H44" t="str">
-        <v>55000</v>
+        <v>20000</v>
       </c>
       <c r="I44" t="str">
-        <v/>
+        <v>18127.73</v>
       </c>
       <c r="J44" t="str">
-        <v>2121</v>
+        <v>3818.2</v>
       </c>
       <c r="K44" t="str">
-        <v/>
+        <v>1359.00</v>
       </c>
       <c r="L44" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M44" t="str">
         <v/>
@@ -2187,37 +2187,37 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>1364.28</v>
+        <v>4751116</v>
       </c>
       <c r="B45" t="str">
-        <v>1364</v>
+        <v>3260</v>
       </c>
       <c r="C45" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D45" t="str">
-        <v>maputo</v>
+        <v>centro</v>
       </c>
       <c r="E45" t="str">
-        <v>Pascoal Chambela</v>
+        <v>Alberto Muchanga</v>
       </c>
       <c r="F45" s="1">
-        <v>44923.503271469905</v>
+        <v>44959.50585607639</v>
       </c>
       <c r="G45" t="str">
-        <v>04258181462</v>
+        <v>22133547913</v>
       </c>
       <c r="H45" t="str">
         <v>60000</v>
       </c>
       <c r="I45" t="str">
-        <v/>
+        <v>54484.18</v>
       </c>
       <c r="J45" t="str">
-        <v>494</v>
+        <v>1728.52</v>
       </c>
       <c r="K45" t="str">
-        <v/>
+        <v>4084.30</v>
       </c>
       <c r="L45" t="str">
         <v>No</v>
@@ -2228,81 +2228,81 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>4503243</v>
+        <v>4751115</v>
       </c>
       <c r="B46" t="str">
-        <v>5637</v>
+        <v>4000</v>
       </c>
       <c r="C46" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D46" t="str">
-        <v>norte</v>
+        <v>centro</v>
       </c>
       <c r="E46" t="str">
-        <v>Samuel Mugabe</v>
+        <v>Zacarias Miambo</v>
       </c>
       <c r="F46" s="1">
-        <v>44922.48475005787</v>
+        <v>44959.60912489583</v>
       </c>
       <c r="G46" t="str">
-        <v>54181222156</v>
+        <v>04234606293</v>
       </c>
       <c r="H46" t="str">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="I46" t="str">
-        <v/>
+        <v>90907.94</v>
       </c>
       <c r="J46" t="str">
-        <v>2339.59</v>
+        <v>148.48</v>
       </c>
       <c r="K46" t="str">
-        <v/>
+        <v>6814.70</v>
       </c>
       <c r="L46" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M46" t="str">
-        <v/>
+        <v>dc</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>4502958</v>
+        <v>4781023</v>
       </c>
       <c r="B47" t="str">
-        <v>5581</v>
+        <v>3301</v>
       </c>
       <c r="C47" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D47" t="str">
-        <v>norte</v>
+        <v>centro</v>
       </c>
       <c r="E47" t="str">
-        <v>Samuel Mugabe</v>
+        <v>Clemente Mussa</v>
       </c>
       <c r="F47" s="1">
-        <v>44922.584861863426</v>
+        <v>44964.44640487269</v>
       </c>
       <c r="G47" t="str">
-        <v>54181220721</v>
+        <v>54191534533</v>
       </c>
       <c r="H47" t="str">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I47" t="str">
-        <v/>
+        <v>90862.45</v>
       </c>
       <c r="J47" t="str">
-        <v>1585.50</v>
+        <v>3704.19</v>
       </c>
       <c r="K47" t="str">
-        <v/>
+        <v>6811.30</v>
       </c>
       <c r="L47" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M47" t="str">
         <v/>
@@ -2310,40 +2310,40 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>1571.28</v>
+        <v>4754923</v>
       </c>
       <c r="B48" t="str">
-        <v>1571</v>
+        <v>4025</v>
       </c>
       <c r="C48" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D48" t="str">
-        <v>maputo</v>
+        <v>centro</v>
       </c>
       <c r="E48" t="str">
-        <v>Pascoal Chambela</v>
+        <v>Tomo Paiwa</v>
       </c>
       <c r="F48" s="1">
-        <v>44923.619349409724</v>
+        <v>44959.71639113426</v>
       </c>
       <c r="G48" t="str">
-        <v>37201321918</v>
+        <v>1321598631</v>
       </c>
       <c r="H48" t="str">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="I48" t="str">
-        <v/>
+        <v>22609.18</v>
       </c>
       <c r="J48" t="str">
-        <v>1228</v>
+        <v>103.05</v>
       </c>
       <c r="K48" t="str">
-        <v/>
+        <v>1694.90</v>
       </c>
       <c r="L48" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M48" t="str">
         <v/>
@@ -2351,37 +2351,37 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>4511077</v>
+        <v>4754923</v>
       </c>
       <c r="B49" t="str">
-        <v>5530</v>
+        <v>4025</v>
       </c>
       <c r="C49" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D49" t="str">
-        <v>norte</v>
+        <v>centro</v>
       </c>
       <c r="E49" t="str">
-        <v>Samuel Mugabe</v>
+        <v>Tomo Paiwa</v>
       </c>
       <c r="F49" s="1">
-        <v>44924.36116644676</v>
+        <v>44959.71639113426</v>
       </c>
       <c r="G49" t="str">
-        <v>22140560479</v>
+        <v>1321598631</v>
       </c>
       <c r="H49" t="str">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="I49" t="str">
-        <v/>
+        <v>45487.63</v>
       </c>
       <c r="J49" t="str">
-        <v>4060.04</v>
+        <v>1796.74</v>
       </c>
       <c r="K49" t="str">
-        <v/>
+        <v>3409.90</v>
       </c>
       <c r="L49" t="str">
         <v>Yes</v>
@@ -2392,10 +2392,10 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>4505004</v>
+        <v>4752615</v>
       </c>
       <c r="B50" t="str">
-        <v>3195</v>
+        <v>4500</v>
       </c>
       <c r="C50" t="str">
         <v>Preventative Maintenance</v>
@@ -2404,28 +2404,28 @@
         <v>centro</v>
       </c>
       <c r="E50" t="str">
-        <v>Sergio Manganhela</v>
+        <v>Euclides Nabo</v>
       </c>
       <c r="F50" s="1">
-        <v>44922.745807060186</v>
+        <v>44959.66827236111</v>
       </c>
       <c r="G50" t="str">
-        <v>54180617968</v>
+        <v>4241403403</v>
       </c>
       <c r="H50" t="str">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="I50" t="str">
-        <v/>
+        <v>63606.26</v>
       </c>
       <c r="J50" t="str">
-        <v>1437</v>
+        <v>3556.64</v>
       </c>
       <c r="K50" t="str">
-        <v/>
+        <v>4768.10</v>
       </c>
       <c r="L50" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M50" t="str">
         <v/>
@@ -2433,37 +2433,37 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>4512014</v>
+        <v>4753337</v>
       </c>
       <c r="B51" t="str">
-        <v>4438</v>
+        <v>2161</v>
       </c>
       <c r="C51" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D51" t="str">
-        <v>centro</v>
+        <v>sul</v>
       </c>
       <c r="E51" t="str">
-        <v>Ussene Dauda</v>
+        <v>Helder Faife</v>
       </c>
       <c r="F51" s="1">
-        <v>44924.42299387731</v>
+        <v>44959.568864953704</v>
       </c>
       <c r="G51" t="str">
-        <v>54292158588</v>
+        <v>7135816515</v>
       </c>
       <c r="H51" t="str">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="I51" t="str">
-        <v/>
+        <v>45400.31</v>
       </c>
       <c r="J51" t="str">
-        <v>3299</v>
+        <v>2743.8</v>
       </c>
       <c r="K51" t="str">
-        <v/>
+        <v>3403.40</v>
       </c>
       <c r="L51" t="str">
         <v>No</v>
@@ -2474,40 +2474,40 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>4502572</v>
+        <v>4754436</v>
       </c>
       <c r="B52" t="str">
-        <v>4067</v>
+        <v>5006</v>
       </c>
       <c r="C52" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D52" t="str">
-        <v>centro</v>
+        <v>norte</v>
       </c>
       <c r="E52" t="str">
-        <v>Zacarias Miambo</v>
+        <v>Jose Fernandes</v>
       </c>
       <c r="F52" s="1">
-        <v>44922.53085292824</v>
+        <v>44959.731766875</v>
       </c>
       <c r="G52" t="str">
-        <v>54216714482</v>
+        <v>1321899641</v>
       </c>
       <c r="H52" t="str">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="I52" t="str">
-        <v/>
+        <v>45318.42</v>
       </c>
       <c r="J52" t="str">
-        <v>3856</v>
+        <v>1406.02</v>
       </c>
       <c r="K52" t="str">
-        <v/>
+        <v>3397.20</v>
       </c>
       <c r="L52" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M52" t="str">
         <v/>
@@ -2515,37 +2515,37 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>4511730</v>
+        <v>5753310</v>
       </c>
       <c r="B53" t="str">
-        <v>4013</v>
+        <v>5597</v>
       </c>
       <c r="C53" t="str">
         <v>Preventative Maintenance</v>
       </c>
       <c r="D53" t="str">
-        <v>centro</v>
+        <v>maputo</v>
       </c>
       <c r="E53" t="str">
-        <v>Zacarias Miambo</v>
+        <v>Clide Tapiwa</v>
       </c>
       <c r="F53" s="1">
-        <v>44924.37732356481</v>
+        <v>44959.58356238426</v>
       </c>
       <c r="G53" t="str">
-        <v>01321598920</v>
+        <v>7114772010</v>
       </c>
       <c r="H53" t="str">
-        <v>100000</v>
+        <v>55000</v>
       </c>
       <c r="I53" t="str">
-        <v/>
+        <v>49923.59</v>
       </c>
       <c r="J53" t="str">
-        <v>3676</v>
+        <v>4110.08</v>
       </c>
       <c r="K53" t="str">
-        <v/>
+        <v>3742.40</v>
       </c>
       <c r="L53" t="str">
         <v>Yes</v>
@@ -2556,119 +2556,113 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>4484250</v>
+        <v>4752901</v>
       </c>
       <c r="B54" t="str">
-        <v>1444</v>
+        <v>5614</v>
       </c>
       <c r="C54" t="str">
-        <v>Callout</v>
+        <v>Preventative Maintenance</v>
       </c>
       <c r="D54" t="str">
-        <v>maputo</v>
+        <v>norte</v>
       </c>
       <c r="E54" t="str">
-        <v>Pascoal Chambela</v>
+        <v>Dercio Bambo</v>
       </c>
       <c r="F54" s="1">
-        <v>44922.81273582176</v>
+        <v>44959.43593241898</v>
       </c>
       <c r="G54" t="str">
-        <v>54230022862</v>
+        <v>54191757514</v>
       </c>
       <c r="H54" t="str">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="I54" t="str">
-        <v/>
+        <v>40769.66</v>
       </c>
       <c r="J54" t="str">
-        <v>00</v>
+        <v>154.79</v>
       </c>
       <c r="K54" t="str">
-        <v/>
-      </c>
-      <c r="L54" t="str">
-        <v>No</v>
-      </c>
-      <c r="M54" t="str">
-        <v/>
+        <v>3056.20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>4498188</v>
+        <v>4755001</v>
       </c>
       <c r="B55" t="str">
-        <v>5599</v>
+        <v>5670</v>
       </c>
       <c r="C55" t="str">
-        <v>Callout</v>
+        <v>Preventative Maintenance</v>
       </c>
       <c r="D55" t="str">
         <v>norte</v>
       </c>
       <c r="E55" t="str">
-        <v>Abdul Emilia</v>
+        <v>Ernesto Candeado</v>
       </c>
       <c r="F55" s="1">
-        <v>44921.71736371528</v>
+        <v>44959.672053090275</v>
       </c>
       <c r="G55" t="str">
-        <v>07118254072</v>
+        <v>7118327209</v>
       </c>
       <c r="H55" t="str">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="I55" t="str">
-        <v/>
+        <v>63513.47</v>
       </c>
       <c r="J55" t="str">
-        <v>0</v>
+        <v>978.7</v>
       </c>
       <c r="K55" t="str">
-        <v/>
+        <v>4761.20</v>
       </c>
       <c r="L55" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M55" t="str">
-        <v/>
+        <v>ac</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>4499099</v>
+        <v>4754916</v>
       </c>
       <c r="B56" t="str">
-        <v>5044</v>
+        <v>5777</v>
       </c>
       <c r="C56" t="str">
-        <v>Callout</v>
+        <v>Preventative Maintenance</v>
       </c>
       <c r="D56" t="str">
-        <v>norte</v>
+        <v>maputo</v>
       </c>
       <c r="E56" t="str">
-        <v>Jose Fernandes</v>
+        <v>Clide Tapiwa</v>
       </c>
       <c r="F56" s="1">
-        <v>44922.465245451385</v>
+        <v>44959.722105127315</v>
       </c>
       <c r="G56" t="str">
-        <v>22140555255</v>
+        <v>14320526453</v>
       </c>
       <c r="H56" t="str">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="I56" t="str">
-        <v/>
+        <v>22574.60</v>
       </c>
       <c r="J56" t="str">
-        <v>0</v>
+        <v>1609.19</v>
       </c>
       <c r="K56" t="str">
-        <v/>
+        <v>1632.30</v>
       </c>
       <c r="L56" t="str">
         <v>No</v>
@@ -2679,40 +2673,40 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>4490912</v>
+        <v>4754982</v>
       </c>
       <c r="B57" t="str">
-        <v>1635</v>
+        <v>6093</v>
       </c>
       <c r="C57" t="str">
-        <v>Callout</v>
+        <v>Preventative Maintenance</v>
       </c>
       <c r="D57" t="str">
-        <v>maputo</v>
+        <v>norte</v>
       </c>
       <c r="E57" t="str">
-        <v>Pascoal Chambela</v>
+        <v>Alberto Mutacate</v>
       </c>
       <c r="F57" s="1">
-        <v>44922.527300243055</v>
+        <v>44959.723917800926</v>
       </c>
       <c r="G57" t="str">
-        <v>07163717825</v>
+        <v>4241435389</v>
       </c>
       <c r="H57" t="str">
         <v>60000</v>
       </c>
       <c r="I57" t="str">
-        <v/>
+        <v>54552.41</v>
       </c>
       <c r="J57" t="str">
-        <v>00</v>
+        <v>74.36</v>
       </c>
       <c r="K57" t="str">
-        <v/>
+        <v>4089.40</v>
       </c>
       <c r="L57" t="str">
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="M57" t="str">
         <v/>
@@ -2720,37 +2714,37 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>4506017</v>
+        <v>4781065</v>
       </c>
       <c r="B58" t="str">
-        <v>1753</v>
+        <v>1128</v>
       </c>
       <c r="C58" t="str">
-        <v>Callout</v>
+        <v>Preventative Maintenance</v>
       </c>
       <c r="D58" t="str">
         <v>maputo</v>
       </c>
       <c r="E58" t="str">
-        <v>Dario Munguambe</v>
+        <v>Antonio Macuacua</v>
       </c>
       <c r="F58" s="1">
-        <v>44923.3551725</v>
+        <v>44963.75438599537</v>
       </c>
       <c r="G58" t="str">
-        <v>14316469676</v>
+        <v>1321890756</v>
       </c>
       <c r="H58" t="str">
-        <v>20000</v>
+        <v>75000</v>
       </c>
       <c r="I58" t="str">
-        <v/>
+        <v>67825.71</v>
       </c>
       <c r="J58" t="str">
-        <v>0.0</v>
+        <v>1343.8</v>
       </c>
       <c r="K58" t="str">
-        <v/>
+        <v>5084.40</v>
       </c>
       <c r="L58" t="str">
         <v>No</v>
@@ -2761,37 +2755,37 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>4506017</v>
+        <v>4776997</v>
       </c>
       <c r="B59" t="str">
-        <v>1753</v>
+        <v>1152</v>
       </c>
       <c r="C59" t="str">
-        <v>Callout</v>
+        <v>Preventative Maintenance</v>
       </c>
       <c r="D59" t="str">
         <v>maputo</v>
       </c>
       <c r="E59" t="str">
-        <v>Dario Munguambe</v>
+        <v>Vicente Simbine</v>
       </c>
       <c r="F59" s="1">
-        <v>44923.3551725</v>
+        <v>44963.50704429398</v>
       </c>
       <c r="G59" t="str">
-        <v>14316469676</v>
+        <v>1321890145</v>
       </c>
       <c r="H59" t="str">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="I59" t="str">
-        <v/>
+        <v>108764.57</v>
       </c>
       <c r="J59" t="str">
-        <v>0.0</v>
+        <v>92.11</v>
       </c>
       <c r="K59" t="str">
-        <v/>
+        <v>8153.3</v>
       </c>
       <c r="L59" t="str">
         <v>No</v>
@@ -2802,40 +2796,40 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>4508196</v>
+        <v>4779032</v>
       </c>
       <c r="B60" t="str">
-        <v>3003</v>
+        <v>1207</v>
       </c>
       <c r="C60" t="str">
-        <v>Callout</v>
+        <v>Preventative Maintenance</v>
       </c>
       <c r="D60" t="str">
-        <v>centro</v>
+        <v>maputo</v>
       </c>
       <c r="E60" t="str">
-        <v>Clemente Mussa</v>
+        <v>Antonio Macuacua</v>
       </c>
       <c r="F60" s="1">
-        <v>44923.758828715276</v>
+        <v>44963.54688773148</v>
       </c>
       <c r="G60" t="str">
-        <v>01320194630</v>
+        <v>7117370382</v>
       </c>
       <c r="H60" t="str">
-        <v>50000</v>
+        <v>85000</v>
       </c>
       <c r="I60" t="str">
-        <v/>
+        <v>77068.79</v>
       </c>
       <c r="J60" t="str">
-        <v>00.00</v>
+        <v>0</v>
       </c>
       <c r="K60" t="str">
-        <v/>
+        <v>5777.3</v>
       </c>
       <c r="L60" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="M60" t="str">
         <v/>
@@ -2843,37 +2837,37 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>4511421</v>
+        <v>4779227</v>
       </c>
       <c r="B61" t="str">
-        <v>1659</v>
+        <v>1228</v>
       </c>
       <c r="C61" t="str">
-        <v>Callout</v>
+        <v>Preventative Maintenance</v>
       </c>
       <c r="D61" t="str">
         <v>maputo</v>
       </c>
       <c r="E61" t="str">
-        <v>Pascoal Chambela</v>
+        <v>Mauricio Guambe</v>
       </c>
       <c r="F61" s="1">
-        <v>44924.281170775466</v>
+        <v>44963.520162037035</v>
       </c>
       <c r="G61" t="str">
-        <v>54281337193</v>
+        <v>7114787943</v>
       </c>
       <c r="H61" t="str">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="I61" t="str">
-        <v/>
+        <v>22338.08</v>
       </c>
       <c r="J61" t="str">
-        <v>00</v>
+        <v>3083.9</v>
       </c>
       <c r="K61" t="str">
-        <v/>
+        <v>1674.6</v>
       </c>
       <c r="L61" t="str">
         <v>No</v>
@@ -2884,48 +2878,1647 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>4511808</v>
+        <v>4779241</v>
       </c>
       <c r="B62" t="str">
-        <v>2566</v>
+        <v>1276</v>
       </c>
       <c r="C62" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D62" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Stelio Ngome</v>
+      </c>
+      <c r="F62" s="1">
+        <v>44963.72181297454</v>
+      </c>
+      <c r="G62" t="str">
+        <v>7117138029</v>
+      </c>
+      <c r="H62" t="str">
+        <v>75000</v>
+      </c>
+      <c r="I62" t="str">
+        <v>67971.27</v>
+      </c>
+      <c r="J62" t="str">
+        <v>993.0</v>
+      </c>
+      <c r="K62" t="str">
+        <v>5095.95</v>
+      </c>
+      <c r="L62" t="str">
+        <v>No</v>
+      </c>
+      <c r="M62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>4777359</v>
+      </c>
+      <c r="B63" t="str">
+        <v>1279</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D63" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Francisco Baco</v>
+      </c>
+      <c r="F63" s="1">
+        <v>44963.414088020836</v>
+      </c>
+      <c r="G63" t="str">
+        <v>54227738975</v>
+      </c>
+      <c r="H63" t="str">
+        <v>85000</v>
+      </c>
+      <c r="I63" t="str">
+        <v>77068.79</v>
+      </c>
+      <c r="J63" t="str">
+        <v>243.27</v>
+      </c>
+      <c r="K63" t="str">
+        <v>5777.30</v>
+      </c>
+      <c r="L63" t="str">
+        <v>No</v>
+      </c>
+      <c r="M63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>4779053</v>
+      </c>
+      <c r="B64" t="str">
+        <v>1349</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D64" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Francisco Baco</v>
+      </c>
+      <c r="F64" s="1">
+        <v>44963.51798751157</v>
+      </c>
+      <c r="G64" t="str">
+        <v>54203496424</v>
+      </c>
+      <c r="H64" t="str">
+        <v>85000</v>
+      </c>
+      <c r="I64" t="str">
+        <v>77068.79</v>
+      </c>
+      <c r="J64" t="str">
+        <v>188.16</v>
+      </c>
+      <c r="K64" t="str">
+        <v>57777.30</v>
+      </c>
+      <c r="L64" t="str">
+        <v>No</v>
+      </c>
+      <c r="M64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>4780944</v>
+      </c>
+      <c r="B65" t="str">
+        <v>1444</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D65" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Vicente Simbine</v>
+      </c>
+      <c r="F65" s="1">
+        <v>44963.74894020833</v>
+      </c>
+      <c r="G65" t="str">
+        <v>54230022862</v>
+      </c>
+      <c r="H65" t="str">
+        <v>20000</v>
+      </c>
+      <c r="I65" t="str">
+        <v>17873.02</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2503.64</v>
+      </c>
+      <c r="K65" t="str">
+        <v>13339.90</v>
+      </c>
+      <c r="L65" t="str">
+        <v>No</v>
+      </c>
+      <c r="M65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>4780944</v>
+      </c>
+      <c r="B66" t="str">
+        <v>1444</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D66" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Vicente Simbine</v>
+      </c>
+      <c r="F66" s="1">
+        <v>44963.74894020833</v>
+      </c>
+      <c r="G66" t="str">
+        <v>54230022862</v>
+      </c>
+      <c r="H66" t="str">
+        <v>30000</v>
+      </c>
+      <c r="I66" t="str">
+        <v>2707.42</v>
+      </c>
+      <c r="J66" t="str">
+        <v>3841.9</v>
+      </c>
+      <c r="K66" t="str">
+        <v>2046.00</v>
+      </c>
+      <c r="L66" t="str">
+        <v>No</v>
+      </c>
+      <c r="M66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>4776876</v>
+      </c>
+      <c r="B67" t="str">
+        <v>2203</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D67" t="str">
+        <v>sul</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Adao Matanato</v>
+      </c>
+      <c r="F67" s="1">
+        <v>44963.46344519676</v>
+      </c>
+      <c r="G67" t="str">
+        <v>7118159404</v>
+      </c>
+      <c r="H67" t="str">
+        <v>3000</v>
+      </c>
+      <c r="I67" t="str">
+        <v>27177.97</v>
+      </c>
+      <c r="J67" t="str">
+        <v>1802.2</v>
+      </c>
+      <c r="K67" t="str">
+        <v>2037.40</v>
+      </c>
+      <c r="L67" t="str">
+        <v>No</v>
+      </c>
+      <c r="M67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>4776598</v>
+      </c>
+      <c r="B68" t="str">
+        <v>2157</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D68" t="str">
+        <v>sul</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Carlos Gume</v>
+      </c>
+      <c r="F68" s="1">
+        <v>44963.640644513885</v>
+      </c>
+      <c r="G68" t="str">
+        <v>54292625594</v>
+      </c>
+      <c r="H68" t="str">
+        <v>65000</v>
+      </c>
+      <c r="I68" t="str">
+        <v>59046.58</v>
+      </c>
+      <c r="J68" t="str">
+        <v>150.04</v>
+      </c>
+      <c r="K68" t="str">
+        <v>4426.30</v>
+      </c>
+      <c r="L68" t="str">
+        <v>No</v>
+      </c>
+      <c r="M68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>4781064</v>
+      </c>
+      <c r="B69" t="str">
+        <v>2512</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D69" t="str">
+        <v>sul</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Alexandre Verlopp</v>
+      </c>
+      <c r="F69" s="1">
+        <v>44963.77337502315</v>
+      </c>
+      <c r="G69" t="str">
+        <v>1321103499</v>
+      </c>
+      <c r="H69" t="str">
+        <v>80000</v>
+      </c>
+      <c r="I69" t="str">
+        <v>72758.39</v>
+      </c>
+      <c r="J69" t="str">
+        <v>76.95</v>
+      </c>
+      <c r="K69" t="str">
+        <v>5454.2</v>
+      </c>
+      <c r="L69" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>4777769</v>
+      </c>
+      <c r="B70" t="str">
+        <v>3208</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D70" t="str">
+        <v>centro</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Carlos Chin</v>
+      </c>
+      <c r="F70" s="1">
+        <v>44963.60185774306</v>
+      </c>
+      <c r="G70" t="str">
+        <v>22129158154</v>
+      </c>
+      <c r="H70" t="str">
+        <v>35000</v>
+      </c>
+      <c r="I70" t="str">
+        <v>31740.36</v>
+      </c>
+      <c r="J70" t="str">
+        <v>3303.76</v>
+      </c>
+      <c r="K70" t="str">
+        <v>2379.40</v>
+      </c>
+      <c r="L70" t="str">
+        <v>No</v>
+      </c>
+      <c r="M70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>4779039</v>
+      </c>
+      <c r="B71" t="str">
+        <v>3200</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D71" t="str">
+        <v>centro</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Alberto Muchanga</v>
+      </c>
+      <c r="F71" s="1">
+        <v>44963.62179951389</v>
+      </c>
+      <c r="G71" t="str">
+        <v>7064184133</v>
+      </c>
+      <c r="H71" t="str">
+        <v>50000</v>
+      </c>
+      <c r="I71" t="str">
+        <v>45420.31</v>
+      </c>
+      <c r="J71" t="str">
+        <v>226.4</v>
+      </c>
+      <c r="K71" t="str">
+        <v>3404.9</v>
+      </c>
+      <c r="L71" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>4779039</v>
+      </c>
+      <c r="B72" t="str">
+        <v>3200</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D72" t="str">
+        <v>centro</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Alberto Muchanga</v>
+      </c>
+      <c r="F72" s="1">
+        <v>44963.62179951389</v>
+      </c>
+      <c r="G72" t="str">
+        <v>7064184133</v>
+      </c>
+      <c r="H72" t="str">
+        <v>25000</v>
+      </c>
+      <c r="I72" t="str">
+        <v>22743.82</v>
+      </c>
+      <c r="J72" t="str">
+        <v>226.4</v>
+      </c>
+      <c r="K72" t="str">
+        <v>1705</v>
+      </c>
+      <c r="L72" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>4779064</v>
+      </c>
+      <c r="B73" t="str">
+        <v>3292</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D73" t="str">
+        <v>centro</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Neves Pinto</v>
+      </c>
+      <c r="F73" s="1">
+        <v>44963.55193372685</v>
+      </c>
+      <c r="G73" t="str">
+        <v>54280572592</v>
+      </c>
+      <c r="H73" t="str">
+        <v>50000</v>
+      </c>
+      <c r="I73" t="str">
+        <v>4548.63</v>
+      </c>
+      <c r="J73" t="str">
+        <v>1021.66</v>
+      </c>
+      <c r="K73" t="str">
+        <v>3409.9</v>
+      </c>
+      <c r="L73" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M73" t="str">
+        <v>dc</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>4778645</v>
+      </c>
+      <c r="B74" t="str">
+        <v>4064</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D74" t="str">
+        <v>centro</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Mario Niquisse</v>
+      </c>
+      <c r="F74" s="1">
+        <v>44963.5666609375</v>
+      </c>
+      <c r="G74" t="str">
+        <v>7116969606</v>
+      </c>
+      <c r="H74" t="str">
+        <v>25000</v>
+      </c>
+      <c r="I74" t="str">
+        <v>22676.5</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2071.5</v>
+      </c>
+      <c r="K74" t="str">
+        <v>1699.9</v>
+      </c>
+      <c r="L74" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>4781063</v>
+      </c>
+      <c r="B75" t="str">
+        <v>5579</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D75" t="str">
+        <v>norte</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Hugo Francisco</v>
+      </c>
+      <c r="F75" s="1">
+        <v>44963.86834447917</v>
+      </c>
+      <c r="G75" t="str">
+        <v>7122686202</v>
+      </c>
+      <c r="H75" t="str">
+        <v>30000</v>
+      </c>
+      <c r="I75" t="str">
+        <v>27270.75</v>
+      </c>
+      <c r="J75" t="str">
+        <v>1803.6</v>
+      </c>
+      <c r="K75" t="str">
+        <v>2044.30</v>
+      </c>
+      <c r="L75" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>4777755</v>
+      </c>
+      <c r="B76" t="str">
+        <v>5668</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D76" t="str">
+        <v>norte</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Ernesto Candeado</v>
+      </c>
+      <c r="F76" s="1">
+        <v>44963.43336081019</v>
+      </c>
+      <c r="G76" t="str">
+        <v>54229553240</v>
+      </c>
+      <c r="H76" t="str">
+        <v>30000</v>
+      </c>
+      <c r="I76" t="str">
+        <v>27179.77</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2149.5</v>
+      </c>
+      <c r="K76" t="str">
+        <v>2037.5</v>
+      </c>
+      <c r="L76" t="str">
+        <v>No</v>
+      </c>
+      <c r="M76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>4779535</v>
+      </c>
+      <c r="B77" t="str">
+        <v>5691</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D77" t="str">
+        <v>norte</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Lito Mario</v>
+      </c>
+      <c r="F77" s="1">
+        <v>44963.59637994213</v>
+      </c>
+      <c r="G77" t="str">
+        <v>54191442927</v>
+      </c>
+      <c r="H77" t="str">
+        <v>15000</v>
+      </c>
+      <c r="I77" t="str">
+        <v>13624.46</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2746.94</v>
+      </c>
+      <c r="K77" t="str">
+        <v>1021.4</v>
+      </c>
+      <c r="L77" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>4777391</v>
+      </c>
+      <c r="B78" t="str">
+        <v>2732</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D78" t="str">
+        <v>sul</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Angelo Cuco</v>
+      </c>
+      <c r="F78" s="1">
+        <v>44963.409100081015</v>
+      </c>
+      <c r="G78" t="str">
+        <v>14319721628</v>
+      </c>
+      <c r="H78" t="str">
+        <v>35000</v>
+      </c>
+      <c r="I78" t="str">
+        <v>31808.61</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2107.86</v>
+      </c>
+      <c r="K78" t="str">
+        <v>2384.50</v>
+      </c>
+      <c r="L78" t="str">
+        <v>No</v>
+      </c>
+      <c r="M78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>4784997</v>
+      </c>
+      <c r="B79" t="str">
+        <v>1255</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D79" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Vicente Simbine</v>
+      </c>
+      <c r="F79" s="1">
+        <v>44964.46009943287</v>
+      </c>
+      <c r="G79" t="str">
+        <v>54205622977</v>
+      </c>
+      <c r="H79" t="str">
+        <v>50000</v>
+      </c>
+      <c r="I79" t="str">
+        <v>45081.90</v>
+      </c>
+      <c r="J79" t="str">
+        <v>1641.45</v>
+      </c>
+      <c r="K79" t="str">
+        <v>3379.50</v>
+      </c>
+      <c r="L79" t="str">
+        <v>No</v>
+      </c>
+      <c r="M79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>4785246</v>
+      </c>
+      <c r="B80" t="str">
+        <v>1260</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D80" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Francisco Baco</v>
+      </c>
+      <c r="F80" s="1">
+        <v>44964.44131436342</v>
+      </c>
+      <c r="G80" t="str">
+        <v>22140302435</v>
+      </c>
+      <c r="H80" t="str">
+        <v>15000</v>
+      </c>
+      <c r="I80" t="str">
+        <v>13379.75</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2643.28</v>
+      </c>
+      <c r="K80" t="str">
+        <v>1751.3</v>
+      </c>
+      <c r="L80" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M80" t="str">
+        <v>ac</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>4785980</v>
+      </c>
+      <c r="B81" t="str">
+        <v>2172</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D81" t="str">
+        <v>sul</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Helder Faife</v>
+      </c>
+      <c r="F81" s="1">
+        <v>44964.474809375</v>
+      </c>
+      <c r="G81" t="str">
+        <v>14320589667</v>
+      </c>
+      <c r="H81" t="str">
+        <v>30000</v>
+      </c>
+      <c r="I81" t="str">
+        <v>27205.26</v>
+      </c>
+      <c r="J81" t="str">
+        <v>3176.07</v>
+      </c>
+      <c r="K81" t="str">
+        <v>2039.40</v>
+      </c>
+      <c r="L81" t="str">
+        <v>No</v>
+      </c>
+      <c r="M81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>4785962</v>
+      </c>
+      <c r="B82" t="str">
+        <v>2209</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D82" t="str">
+        <v>sul</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Adao Matanato</v>
+      </c>
+      <c r="F82" s="1">
+        <v>44964.47298144676</v>
+      </c>
+      <c r="G82" t="str">
+        <v>54216841491</v>
+      </c>
+      <c r="H82" t="str">
+        <v>55000</v>
+      </c>
+      <c r="I82" t="str">
+        <v>50014.14</v>
+      </c>
+      <c r="J82" t="str">
+        <v>1175.22299</v>
+      </c>
+      <c r="K82" t="str">
+        <v>3748.30</v>
+      </c>
+      <c r="L82" t="str">
+        <v>No</v>
+      </c>
+      <c r="M82" t="str">
+        <v>ac</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>4786907</v>
+      </c>
+      <c r="B83" t="str">
+        <v>2004</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D83" t="str">
+        <v>sul</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Angelo Cuco</v>
+      </c>
+      <c r="F83" s="1">
+        <v>44964.514216793985</v>
+      </c>
+      <c r="G83" t="str">
+        <v>7113369412</v>
+      </c>
+      <c r="H83" t="str">
+        <v>50000</v>
+      </c>
+      <c r="I83" t="str">
+        <v>45465.80</v>
+      </c>
+      <c r="J83" t="str">
+        <v>1584.4</v>
+      </c>
+      <c r="K83" t="str">
+        <v>3408.30</v>
+      </c>
+      <c r="L83" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>4785569</v>
+      </c>
+      <c r="B84" t="str">
+        <v>2507</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D84" t="str">
+        <v>sul</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Elias Chipulo</v>
+      </c>
+      <c r="F84" s="1">
+        <v>44964.53404506944</v>
+      </c>
+      <c r="G84" t="str">
+        <v>22133436117</v>
+      </c>
+      <c r="H84" t="str">
+        <v>50000</v>
+      </c>
+      <c r="I84" t="str">
+        <v>45374.84</v>
+      </c>
+      <c r="J84" t="str">
+        <v>1206.57</v>
+      </c>
+      <c r="K84" t="str">
+        <v>3401.50</v>
+      </c>
+      <c r="L84" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>4787301</v>
+      </c>
+      <c r="B85" t="str">
+        <v>2536</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D85" t="str">
+        <v>sul</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Jaime Mucavel</v>
+      </c>
+      <c r="F85" s="1">
+        <v>44964.4919084838</v>
+      </c>
+      <c r="G85" t="str">
+        <v>1321674937</v>
+      </c>
+      <c r="H85" t="str">
+        <v>25000</v>
+      </c>
+      <c r="I85" t="str">
+        <v>22722</v>
+      </c>
+      <c r="J85" t="str">
+        <v>3677.84</v>
+      </c>
+      <c r="K85" t="str">
+        <v>1703.30</v>
+      </c>
+      <c r="L85" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M85" t="str">
+        <v>dc</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>4785667</v>
+      </c>
+      <c r="B86" t="str">
+        <v>4404</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Preventative Maintenance</v>
+      </c>
+      <c r="D86" t="str">
+        <v>centro</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Ussene Dauda</v>
+      </c>
+      <c r="F86" s="1">
+        <v>44964.48735336806</v>
+      </c>
+      <c r="G86" t="str">
+        <v>54216157310</v>
+      </c>
+      <c r="H86" t="str">
+        <v>50000</v>
+      </c>
+      <c r="I86" t="str">
+        <v>45427.59</v>
+      </c>
+      <c r="J86" t="str">
+        <v>1022.15</v>
+      </c>
+      <c r="K86" t="str">
+        <v>3405.40</v>
+      </c>
+      <c r="L86" t="str">
+        <v>No</v>
+      </c>
+      <c r="M86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>4739652</v>
+      </c>
+      <c r="B87" t="str">
+        <v>1222</v>
+      </c>
+      <c r="C87" t="str">
         <v>Callout</v>
       </c>
-      <c r="D62" t="str">
+      <c r="D87" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Vicente Simbine</v>
+      </c>
+      <c r="F87" s="1">
+        <v>44958.477509606484</v>
+      </c>
+      <c r="G87" t="str">
+        <v>07110845406</v>
+      </c>
+      <c r="H87" t="str">
+        <v>85000</v>
+      </c>
+      <c r="I87" t="str">
+        <v>76839.54</v>
+      </c>
+      <c r="J87" t="str">
+        <v>0.0</v>
+      </c>
+      <c r="K87" t="str">
+        <v>5760.10</v>
+      </c>
+      <c r="L87" t="str">
+        <v>No</v>
+      </c>
+      <c r="M87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>4740656</v>
+      </c>
+      <c r="B88" t="str">
+        <v>3239</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D88" t="str">
+        <v>centro</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Clemente Mussa</v>
+      </c>
+      <c r="F88" s="1">
+        <v>44959.232346944445</v>
+      </c>
+      <c r="G88" t="str">
+        <v>7117229349</v>
+      </c>
+      <c r="H88" t="str">
+        <v>25000</v>
+      </c>
+      <c r="I88" t="str">
+        <v>22461.80</v>
+      </c>
+      <c r="J88" t="str">
+        <v>0.0</v>
+      </c>
+      <c r="K88" t="str">
+        <v>2940.10</v>
+      </c>
+      <c r="L88" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M88" t="str">
+        <v>ac</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>4739461</v>
+      </c>
+      <c r="B89" t="str">
+        <v>2000</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D89" t="str">
         <v>sul</v>
       </c>
-      <c r="E62" t="str">
-        <v>Adao Matanato</v>
-      </c>
-      <c r="F62" s="1">
-        <v>44924.4125821875</v>
-      </c>
-      <c r="G62" t="str">
-        <v>54191653861</v>
-      </c>
-      <c r="H62" t="str">
-        <v/>
-      </c>
-      <c r="I62" t="str">
-        <v/>
-      </c>
-      <c r="J62" t="str">
+      <c r="E89" t="str">
+        <v>Armando Massingue</v>
+      </c>
+      <c r="F89" s="1">
+        <v>44958.74561761574</v>
+      </c>
+      <c r="G89" t="str">
+        <v>54191275459</v>
+      </c>
+      <c r="H89" t="str">
+        <v>145000</v>
+      </c>
+      <c r="I89" t="str">
+        <v>131885.02</v>
+      </c>
+      <c r="J89" t="str">
+        <v>1292.96</v>
+      </c>
+      <c r="K89" t="str">
+        <v>9886.50</v>
+      </c>
+      <c r="L89" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M89" t="str">
+        <v>ac</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>4739461</v>
+      </c>
+      <c r="B90" t="str">
+        <v>2000</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D90" t="str">
+        <v>sul</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Armando Massingue</v>
+      </c>
+      <c r="F90" s="1">
+        <v>44958.74561761574</v>
+      </c>
+      <c r="G90" t="str">
+        <v>54191275459</v>
+      </c>
+      <c r="H90" t="str">
+        <v>55000</v>
+      </c>
+      <c r="I90" t="str">
+        <v>50036.40</v>
+      </c>
+      <c r="J90" t="str">
+        <v>1292.96</v>
+      </c>
+      <c r="K90" t="str">
+        <v>3750.90</v>
+      </c>
+      <c r="L90" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M90" t="str">
+        <v>ac</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>4742505</v>
+      </c>
+      <c r="B91" t="str">
+        <v>3292</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D91" t="str">
+        <v>centro</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Neves Pinto</v>
+      </c>
+      <c r="F91" s="1">
+        <v>44958.4971925</v>
+      </c>
+      <c r="G91" t="str">
+        <v>54229462772</v>
+      </c>
+      <c r="H91" t="str">
+        <v>20000</v>
+      </c>
+      <c r="I91" t="str">
+        <v>18184.14</v>
+      </c>
+      <c r="J91" t="str">
+        <v>78.76</v>
+      </c>
+      <c r="K91" t="str">
+        <v>1363.20</v>
+      </c>
+      <c r="L91" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M91" t="str">
+        <v>dc</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>4741354</v>
+      </c>
+      <c r="B92" t="str">
+        <v>1652</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D92" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Francisco Baco</v>
+      </c>
+      <c r="F92" s="1">
+        <v>44958.62918619213</v>
+      </c>
+      <c r="G92" t="str">
+        <v>54180726397</v>
+      </c>
+      <c r="H92" t="str">
+        <v>30000</v>
+      </c>
+      <c r="I92" t="str">
+        <v>27032.40</v>
+      </c>
+      <c r="J92" t="str">
         <v>0</v>
       </c>
-      <c r="K62" t="str">
-        <v/>
-      </c>
-      <c r="L62" t="str">
-        <v>No</v>
-      </c>
-      <c r="M62" t="str">
+      <c r="K92" t="str">
+        <v>2026.50</v>
+      </c>
+      <c r="L92" t="str">
+        <v>No</v>
+      </c>
+      <c r="M92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>4753346</v>
+      </c>
+      <c r="B93" t="str">
+        <v>1405</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D93" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Francisco Baco</v>
+      </c>
+      <c r="F93" s="1">
+        <v>44959.72180917824</v>
+      </c>
+      <c r="G93" t="str">
+        <v>54230510932</v>
+      </c>
+      <c r="H93" t="str">
+        <v>60000</v>
+      </c>
+      <c r="I93" t="str">
+        <v>54437.79</v>
+      </c>
+      <c r="J93" t="str">
+        <v>0</v>
+      </c>
+      <c r="K93" t="str">
+        <v>4080.80</v>
+      </c>
+      <c r="L93" t="str">
+        <v>No</v>
+      </c>
+      <c r="M93" t="str">
+        <v>ac</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>4729294</v>
+      </c>
+      <c r="B94" t="str">
+        <v>5063</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D94" t="str">
+        <v>norte</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Jordao Alfredo</v>
+      </c>
+      <c r="F94" s="1">
+        <v>44959.84994028935</v>
+      </c>
+      <c r="G94" t="str">
+        <v>4258074543</v>
+      </c>
+      <c r="H94" t="str">
+        <v>40000</v>
+      </c>
+      <c r="I94" t="str">
+        <v>36237.27</v>
+      </c>
+      <c r="J94" t="str">
+        <v>0</v>
+      </c>
+      <c r="K94" t="str">
+        <v>2716.50</v>
+      </c>
+      <c r="L94" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>4753139</v>
+      </c>
+      <c r="B95" t="str">
+        <v>6160</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D95" t="str">
+        <v>norte</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Abdul Emilia</v>
+      </c>
+      <c r="F95" s="1">
+        <v>44959.9228465162</v>
+      </c>
+      <c r="G95" t="str">
+        <v>54181004448</v>
+      </c>
+      <c r="H95" t="str">
+        <v>50000</v>
+      </c>
+      <c r="I95" t="str">
+        <v>45334.79</v>
+      </c>
+      <c r="J95" t="str">
+        <v>0</v>
+      </c>
+      <c r="K95" t="str">
+        <v>3398.50</v>
+      </c>
+      <c r="L95" t="str">
+        <v>No</v>
+      </c>
+      <c r="M95" t="str">
+        <v>ac</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>4765844</v>
+      </c>
+      <c r="B96" t="str">
+        <v>1025</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D96" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Mauricio Guambe</v>
+      </c>
+      <c r="F96" s="1">
+        <v>44961.4100009375</v>
+      </c>
+      <c r="G96" t="str">
+        <v>22140543723</v>
+      </c>
+      <c r="H96" t="str">
+        <v>120000</v>
+      </c>
+      <c r="I96" t="str">
+        <v>108931.97</v>
+      </c>
+      <c r="J96" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K96" t="str">
+        <v>8165.9</v>
+      </c>
+      <c r="L96" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>4764193</v>
+      </c>
+      <c r="B97" t="str">
+        <v>1338</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D97" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Dinis Bene</v>
+      </c>
+      <c r="F97" s="1">
+        <v>44963.284801458336</v>
+      </c>
+      <c r="G97" t="str">
+        <v>54291715388</v>
+      </c>
+      <c r="H97" t="str">
+        <v>25000.00</v>
+      </c>
+      <c r="I97" t="str">
+        <v>22711.08</v>
+      </c>
+      <c r="J97" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K97" t="str">
+        <v>1702.50</v>
+      </c>
+      <c r="L97" t="str">
+        <v>No</v>
+      </c>
+      <c r="M97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>4770033</v>
+      </c>
+      <c r="B98" t="str">
+        <v>1504</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D98" t="str">
+        <v>maputo</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Stelio Ngome</v>
+      </c>
+      <c r="F98" s="1">
+        <v>44962.75165925926</v>
+      </c>
+      <c r="G98" t="str">
+        <v>84626179430</v>
+      </c>
+      <c r="H98" t="str">
+        <v>25000.00</v>
+      </c>
+      <c r="I98" t="str">
+        <v>22483.6</v>
+      </c>
+      <c r="J98" t="str">
+        <v>1685.50</v>
+      </c>
+      <c r="K98" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L98" t="str">
+        <v>No</v>
+      </c>
+      <c r="M98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>4778222</v>
+      </c>
+      <c r="B99" t="str">
+        <v>5021</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D99" t="str">
+        <v>norte</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Jose Fernandes</v>
+      </c>
+      <c r="F99" s="1">
+        <v>44963.673474745374</v>
+      </c>
+      <c r="G99" t="str">
+        <v>54280013134</v>
+      </c>
+      <c r="H99" t="str">
+        <v>70000</v>
+      </c>
+      <c r="I99" t="str">
+        <v>63639.60</v>
+      </c>
+      <c r="J99" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K99" t="str">
+        <v>4770.60</v>
+      </c>
+      <c r="L99" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>4780397</v>
+      </c>
+      <c r="B100" t="str">
+        <v>5566</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D100" t="str">
+        <v>norte</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Dercio Bambo</v>
+      </c>
+      <c r="F100" s="1">
+        <v>44963.75861819444</v>
+      </c>
+      <c r="G100" t="str">
+        <v>1321569699</v>
+      </c>
+      <c r="H100" t="str">
+        <v>25000.00</v>
+      </c>
+      <c r="I100" t="str">
+        <v>22721.30</v>
+      </c>
+      <c r="J100" t="str">
+        <v>1703.30</v>
+      </c>
+      <c r="K100" t="str">
+        <v>718.14</v>
+      </c>
+      <c r="L100" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>4782413</v>
+      </c>
+      <c r="B101" t="str">
+        <v>4140</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Callout</v>
+      </c>
+      <c r="D101" t="str">
+        <v>centro</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Zacarias Miambo</v>
+      </c>
+      <c r="F101" s="1">
+        <v>44963.80233600694</v>
+      </c>
+      <c r="G101" t="str">
+        <v>7162765247</v>
+      </c>
+      <c r="H101" t="str">
+        <v>25000.00</v>
+      </c>
+      <c r="I101" t="str">
+        <v>27259.83</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2043.50</v>
+      </c>
+      <c r="K101" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L101" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="M101" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M62"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M101"/>
   </ignoredErrors>
 </worksheet>
 </file>